--- a/src/results/Faulkner-Master-Spreadsheet.xlsx
+++ b/src/results/Faulkner-Master-Spreadsheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan McFalls\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Stanford University\2017-2018 Year\Spring 2018\Senior Capstone Project\Project\src\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Title</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>#79997</t>
+  </si>
+  <si>
+    <t>Average dependency distance</t>
   </si>
 </sst>
 </file>
@@ -1063,11 +1066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="338984992"/>
-        <c:axId val="339047456"/>
+        <c:axId val="337367176"/>
+        <c:axId val="337546256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338984992"/>
+        <c:axId val="337367176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339047456"/>
+        <c:crossAx val="337546256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1132,7 +1135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339047456"/>
+        <c:axId val="337546256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -1185,7 +1188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338984992"/>
+        <c:crossAx val="337367176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1482,11 +1485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="339047848"/>
-        <c:axId val="339045888"/>
+        <c:axId val="337547432"/>
+        <c:axId val="337546648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="339047848"/>
+        <c:axId val="337547432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,7 +1546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339045888"/>
+        <c:crossAx val="337546648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1551,7 +1554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339045888"/>
+        <c:axId val="337546648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,7 +1605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339047848"/>
+        <c:crossAx val="337547432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1897,11 +1900,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="340937056"/>
-        <c:axId val="340938232"/>
+        <c:axId val="337547040"/>
+        <c:axId val="337548216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="340937056"/>
+        <c:axId val="337547040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,7 +1961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340938232"/>
+        <c:crossAx val="337548216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1966,7 +1969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340938232"/>
+        <c:axId val="337548216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2020,342 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340937056"/>
+        <c:crossAx val="337547040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average dependency distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$O$2:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.1388615280000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2187536950000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2341488090000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0680102790000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1933339890000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.163553759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1591647520000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1862311060000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2267937899999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.390706512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1341369270000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3358912630000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2073623709999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1873630930000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3819969419999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1841314700000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1879830600000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3380344430000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4347044599999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="371776520"/>
+        <c:axId val="372797520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="371776520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="372797520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="372797520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371776520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2186,6 +2524,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3193,6 +3571,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3782,6 +4663,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4053,11 +4964,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4074,10 +4985,11 @@
     <col min="11" max="11" width="15.21875" customWidth="1"/>
     <col min="12" max="12" width="11.44140625" customWidth="1"/>
     <col min="13" max="13" width="14.5546875" customWidth="1"/>
-    <col min="14" max="14" width="23.88671875" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4120,8 +5032,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4164,8 +5079,11 @@
       <c r="N2">
         <v>3.20820652744254</v>
       </c>
+      <c r="O2">
+        <v>3.1388615280000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4208,8 +5126,11 @@
       <c r="N3">
         <v>3.36902619476104</v>
       </c>
+      <c r="O3">
+        <v>3.2187536950000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -4252,8 +5173,11 @@
       <c r="N4">
         <v>4.4730434782608697</v>
       </c>
+      <c r="O4">
+        <v>3.2341488090000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -4296,8 +5220,11 @@
       <c r="N5">
         <v>3.3144413069786198</v>
       </c>
+      <c r="O5">
+        <v>3.0680102790000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -4340,8 +5267,11 @@
       <c r="N6">
         <v>3.6854599406528101</v>
       </c>
+      <c r="O6">
+        <v>3.1933339890000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -4384,8 +5314,11 @@
       <c r="N7">
         <v>3.63794637183886</v>
       </c>
+      <c r="O7">
+        <v>3.163553759</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4428,8 +5361,11 @@
       <c r="N8">
         <v>4.1919431279620802</v>
       </c>
+      <c r="O8">
+        <v>3.1591647520000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -4472,8 +5408,11 @@
       <c r="N9">
         <v>4.3444922386384803</v>
       </c>
+      <c r="O9">
+        <v>3.1862311060000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -4516,8 +5455,11 @@
       <c r="N10">
         <v>7.1794516754361597</v>
       </c>
+      <c r="O10">
+        <v>3.2267937899999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4560,8 +5502,11 @@
       <c r="N11">
         <v>4.6283141570785302</v>
       </c>
+      <c r="O11">
+        <v>3.390706512</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -4604,8 +5549,11 @@
       <c r="N12">
         <v>4.46451725950587</v>
       </c>
+      <c r="O12">
+        <v>3.1341369270000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4648,8 +5596,11 @@
       <c r="N13">
         <v>5.0429942418426101</v>
       </c>
+      <c r="O13">
+        <v>3.3358912630000002</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -4692,8 +5643,11 @@
       <c r="N14">
         <v>4.6103662524525797</v>
       </c>
+      <c r="O14">
+        <v>3.2073623709999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -4736,8 +5690,11 @@
       <c r="N15">
         <v>5.9487964989059003</v>
       </c>
+      <c r="O15">
+        <v>3.1873630930000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4780,8 +5737,11 @@
       <c r="N16">
         <v>4.5312117503059897</v>
       </c>
+      <c r="O16">
+        <v>3.3819969419999998</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -4824,8 +5784,11 @@
       <c r="N17">
         <v>5.2939612015018698</v>
       </c>
+      <c r="O17">
+        <v>3.1841314700000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -4868,8 +5831,11 @@
       <c r="N18">
         <v>4.7897132453345401</v>
       </c>
+      <c r="O18">
+        <v>3.1879830600000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -4912,8 +5878,11 @@
       <c r="N19">
         <v>5.1421009771986901</v>
       </c>
+      <c r="O19">
+        <v>3.3380344430000002</v>
+      </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -4956,13 +5925,16 @@
       <c r="N20">
         <v>4.1295433364398804</v>
       </c>
+      <c r="O20">
+        <v>3.4347044599999998</v>
+      </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5019,7 +5991,7 @@
         <v>3.6146873033224565</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -5076,7 +6048,7 @@
         <v>4.9231541361309024</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5133,7 +6105,7 @@
         <v>4.9725545016144785</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -5190,7 +6162,7 @@
         <v>4.6646661686205801</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -5247,7 +6219,7 @@
         <v>4.1360406843699602</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -5304,7 +6276,7 @@
         <v>4.6894031505624829</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>

--- a/src/results/Faulkner-Master-Spreadsheet.xlsx
+++ b/src/results/Faulkner-Master-Spreadsheet.xlsx
@@ -1066,11 +1066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="337367176"/>
-        <c:axId val="337546256"/>
+        <c:axId val="340109600"/>
+        <c:axId val="341691976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="337367176"/>
+        <c:axId val="340109600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,7 +1127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337546256"/>
+        <c:crossAx val="341691976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1135,7 +1135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337546256"/>
+        <c:axId val="341691976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -1188,7 +1188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337367176"/>
+        <c:crossAx val="340109600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1485,11 +1485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="337547432"/>
-        <c:axId val="337546648"/>
+        <c:axId val="341690408"/>
+        <c:axId val="341691192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="337547432"/>
+        <c:axId val="341690408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337546648"/>
+        <c:crossAx val="341691192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1554,7 +1554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337546648"/>
+        <c:axId val="341691192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1605,7 +1605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337547432"/>
+        <c:crossAx val="341690408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1900,11 +1900,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="337547040"/>
-        <c:axId val="337548216"/>
+        <c:axId val="341692368"/>
+        <c:axId val="341689624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="337547040"/>
+        <c:axId val="341692368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,7 +1961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337548216"/>
+        <c:crossAx val="341689624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1969,7 +1969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337548216"/>
+        <c:axId val="341689624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,7 +2020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337547040"/>
+        <c:crossAx val="341692368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2172,6 +2172,71 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Faulkner-Basic-Metrics-Results'!$O$2:$O$20</c:f>
@@ -2250,16 +2315,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371776520"/>
-        <c:axId val="372797520"/>
+        <c:axId val="341688840"/>
+        <c:axId val="341689232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="371776520"/>
+        <c:axId val="341688840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2296,7 +2362,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372797520"/>
+        <c:crossAx val="341689232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2304,7 +2370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="372797520"/>
+        <c:axId val="341689232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2355,7 +2421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371776520"/>
+        <c:crossAx val="341688840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2367,6 +2433,2181 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Part of Speech Percentages</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Noun%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$I$2:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.21539444338597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22097471063897201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23764831707109099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21580375090259701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.204102077401666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.229816716004282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18374271934217101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20812087096812101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.193609840246006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.200808742535799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20515372017330999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20574206959394001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20716544294978201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20551782458180201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.224367359040094</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.204344695902588</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20558068670876101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.199962937876212</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20692364959880799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verb%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$J$2:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.23214946148587301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21365149833518299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.192519627066363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.246082238832185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24160778937748201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21802607545506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22829639195635501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21130044631816899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21204530113252801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22891182097512899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20598295913924899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21006321544507001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20538792718437901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19244998810813599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18856275833202499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.190590665790215</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21585304558162899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.216193592086597</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2313570187774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adjective%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$K$2:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8.0861174308224995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1358014904074794E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9213522331842701E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5904256357213906E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9263946008646998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4646973609623903E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1493556123659102E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3862359715957898E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5911647791194697E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9032407675807197E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.95316872939859E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.4995159177629699E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.0403915894027905E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8774609550487503E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.92828615776347E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3215012364228199E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8341029749002594E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.23030914923255E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8192158160311003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adverb%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$L$2:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>7.3038430071614993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5937450451878802E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7867411707264097E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0968560332546199E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3183591690393304E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0741953769603799E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7288827978810296E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8405972891176096E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8457211430285704E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.23815873383964E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4851877189709102E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3988268124608398E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7276917305321805E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7830395602653206E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8840056506043E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2759883557141501E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4186850124084995E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5984510588265307E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6668458929605405E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pronoun%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$M$2:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.14048438252995099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.123434279372126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10612178468739999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.124899982435939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13074273260923</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.121660263273918</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12832406504493499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.103512841951552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10228005700142501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.113948634703461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.105593216825258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.106256051027962</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.107454847526662</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.8173938320868903E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.2770888923769104E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4612952702914199E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10394873244746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10510307104425699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10573662006783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="376164408"/>
+        <c:axId val="376161664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="376164408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376161664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="376161664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376164408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Part of Speech Percentages</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Noun%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$I$2:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.21539444338597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22097471063897201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23764831707109099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21580375090259701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.204102077401666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.229816716004282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18374271934217101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20812087096812101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.193609840246006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.200808742535799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20515372017330999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20574206959394001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20716544294978201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20551782458180201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.224367359040094</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.204344695902588</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20558068670876101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.199962937876212</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20692364959880799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verb%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$J$2:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.23214946148587301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21365149833518299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.192519627066363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.246082238832185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24160778937748201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21802607545506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22829639195635501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21130044631816899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21204530113252801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22891182097512899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20598295913924899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21006321544507001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20538792718437901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19244998810813599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18856275833202499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.190590665790215</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21585304558162899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.216193592086597</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2313570187774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adjective%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$K$2:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8.0861174308224995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1358014904074794E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9213522331842701E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5904256357213906E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9263946008646998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4646973609623903E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1493556123659102E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3862359715957898E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5911647791194697E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9032407675807197E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.95316872939859E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.4995159177629699E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.0403915894027905E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8774609550487503E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.92828615776347E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3215012364228199E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8341029749002594E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.23030914923255E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8192158160311003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adverb%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$L$2:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>7.3038430071614993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5937450451878802E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7867411707264097E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0968560332546199E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3183591690393304E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0741953769603799E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7288827978810296E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8405972891176096E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8457211430285704E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.23815873383964E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4851877189709102E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3988268124608398E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7276917305321805E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7830395602653206E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8840056506043E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2759883557141501E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4186850124084995E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5984510588265307E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6668458929605405E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pronoun%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$M$2:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.14048438252995099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.123434279372126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10612178468739999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.124899982435939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13074273260923</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.121660263273918</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12832406504493499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.103512841951552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10228005700142501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.113948634703461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.105593216825258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.106256051027962</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.107454847526662</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.8173938320868903E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.2770888923769104E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4612952702914199E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10394873244746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10510307104425699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10573662006783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="379217672"/>
+        <c:axId val="379220808"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="379217672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379220808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="379220808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379217672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2564,6 +4805,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4576,20 +6897,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>975360</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4611,15 +7938,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>922020</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>998220</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4670,16 +7997,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4693,6 +8020,68 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1097280</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>944880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1531620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4962,13 +8351,265 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O20"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/results/Faulkner-Master-Spreadsheet.xlsx
+++ b/src/results/Faulkner-Master-Spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Title</t>
   </si>
@@ -277,6 +277,24 @@
   </si>
   <si>
     <t>Average dependency distance</t>
+  </si>
+  <si>
+    <t>MISCELLANEOUS</t>
+  </si>
+  <si>
+    <t>Moby-Dick</t>
+  </si>
+  <si>
+    <t>LD (stemmed, filtered)</t>
+  </si>
+  <si>
+    <t>Dime Novel Average</t>
+  </si>
+  <si>
+    <t>The Green Coaster</t>
+  </si>
+  <si>
+    <t>The Rotters' Club</t>
   </si>
 </sst>
 </file>
@@ -876,11 +894,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$N$1</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average sentence tree depth</c:v>
+                  <c:v>Average sentence length</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -990,66 +1008,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$N$2:$N$20</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3.20820652744254</c:v>
+                  <c:v>12.593789696541901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.36902619476104</c:v>
+                  <c:v>13.658906334596599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4730434782608697</c:v>
+                  <c:v>20.364741161616099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3144413069786198</c:v>
+                  <c:v>14.1863233665559</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6854599406528101</c:v>
+                  <c:v>14.7137315748642</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.63794637183886</c:v>
+                  <c:v>13.2995476629251</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1919431279620802</c:v>
+                  <c:v>16.889828622301302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3444922386384803</c:v>
+                  <c:v>22.476707252514501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1794516754361597</c:v>
+                  <c:v>46.537521815008702</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6283141570785302</c:v>
+                  <c:v>17.326971371170199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.46451725950587</c:v>
+                  <c:v>23.163025210084001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0429942418426101</c:v>
+                  <c:v>18.092735703245701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6103662524525797</c:v>
+                  <c:v>24.269239106871801</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9487964989059003</c:v>
+                  <c:v>51.801505817932899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5312117503059897</c:v>
+                  <c:v>24.399574468085099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2939612015018698</c:v>
+                  <c:v>31.674598453301599</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7897132453345401</c:v>
+                  <c:v>26.140833504413798</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1421009771986901</c:v>
+                  <c:v>21.4375342465753</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1295433364398804</c:v>
+                  <c:v>15.1586206896551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,11 +1084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="340109600"/>
-        <c:axId val="341691976"/>
+        <c:axId val="349789656"/>
+        <c:axId val="349784168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="340109600"/>
+        <c:axId val="349789656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1093,7 +1111,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1127,7 +1145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341691976"/>
+        <c:crossAx val="349784168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1135,11 +1153,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="341691976"/>
+        <c:axId val="349784168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8"/>
-          <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1188,11 +1204,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340109600"/>
+        <c:crossAx val="349789656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1295,11 +1309,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$G$1</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average sentence length</c:v>
+                  <c:v>Lexical diversity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1409,66 +1423,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$G$2:$G$20</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$H$2:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>12.593789696541901</c:v>
+                  <c:v>6.3736312999428404E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.658906334596599</c:v>
+                  <c:v>6.2331536388140103E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.364741161616099</c:v>
+                  <c:v>6.1566600274352602E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.1863233665559</c:v>
+                  <c:v>4.9999024218887203E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.7137315748642</c:v>
+                  <c:v>5.4711940665752697E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.2995476629251</c:v>
+                  <c:v>6.2127605970901299E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.889828622301302</c:v>
+                  <c:v>4.00337348127454E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.476707252514501</c:v>
+                  <c:v>6.7442326036011593E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.537521815008702</c:v>
+                  <c:v>5.4413860346508601E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.326971371170199</c:v>
+                  <c:v>5.5510464374746299E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.163025210084001</c:v>
+                  <c:v>7.0163982005514394E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.092735703245701</c:v>
+                  <c:v>5.2053078193518898E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.269239106871801</c:v>
+                  <c:v>5.5513871768762102E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51.801505817932899</c:v>
+                  <c:v>7.0373404508337498E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.399574468085099</c:v>
+                  <c:v>0.100629588935977</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.674598453301599</c:v>
+                  <c:v>5.6506088208595401E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.140833504413798</c:v>
+                  <c:v>4.9885339113498503E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.4375342465753</c:v>
+                  <c:v>4.99571868570041E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.1586206896551</c:v>
+                  <c:v>5.6838861775167497E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,11 +1499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="341690408"/>
-        <c:axId val="341691192"/>
+        <c:axId val="349784560"/>
+        <c:axId val="347200912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="341690408"/>
+        <c:axId val="349784560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341691192"/>
+        <c:crossAx val="347200912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1554,7 +1568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="341691192"/>
+        <c:axId val="347200912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1605,7 +1619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341690408"/>
+        <c:crossAx val="349784560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1655,822 +1669,6 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Lexical diversity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>Soldiers' Pay</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mosquitoes</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Flags in the Dust</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>The Sound and the Fury</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>As I Lay Dying</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sanctuary</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Light in August</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pylon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Absalom! Absalom!</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Unvanquished</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>The Wild Palms</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>The Hamlet</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Go Down, Moses</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Intruder in the Dust</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Requiem for a Nun</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>A Fable</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>The Town</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>The Mansion</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>The Reivers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$H$2:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>6.3736312999428404E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2331536388140103E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.1566600274352602E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9999024218887203E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4711940665752697E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.2127605970901299E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.00337348127454E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.7442326036011593E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.4413860346508601E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.5510464374746299E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.0163982005514394E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.2053078193518898E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.5513871768762102E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.0373404508337498E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.100629588935977</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.6506088208595401E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.9885339113498503E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.99571868570041E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.6838861775167497E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="341692368"/>
-        <c:axId val="341689624"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="341692368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="341689624"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="341689624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="341692368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average dependency distance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>Soldiers' Pay</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mosquitoes</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Flags in the Dust</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>The Sound and the Fury</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>As I Lay Dying</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sanctuary</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Light in August</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pylon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Absalom! Absalom!</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>The Unvanquished</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>The Wild Palms</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>The Hamlet</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Go Down, Moses</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Intruder in the Dust</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Requiem for a Nun</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>A Fable</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>The Town</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>The Mansion</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>The Reivers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$O$2:$O$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>3.1388615280000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2187536950000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2341488090000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0680102790000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1933339890000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.163553759</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1591647520000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1862311060000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.2267937899999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.390706512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1341369270000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.3358912630000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2073623709999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1873630930000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.3819969419999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.1841314700000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.1879830600000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.3380344430000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.4347044599999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="341688840"/>
-        <c:axId val="341689232"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="341688840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="341689232"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="341689232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="341688840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2551,7 +1749,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$I$1</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2651,7 +1849,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$I$2:$I$20</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$J$2:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2722,7 +1920,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$J$1</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2822,7 +2020,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$J$2:$J$20</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$K$2:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2893,7 +2091,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$K$1</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2993,7 +2191,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$K$2:$K$20</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$L$2:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3064,7 +2262,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$L$1</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3164,7 +2362,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$L$2:$L$20</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$M$2:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3235,7 +2433,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$M$1</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3335,7 +2533,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$M$2:$M$20</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$N$2:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3411,11 +2609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="376164408"/>
-        <c:axId val="376161664"/>
+        <c:axId val="433180240"/>
+        <c:axId val="433178672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="376164408"/>
+        <c:axId val="433180240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3458,7 +2656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376161664"/>
+        <c:crossAx val="433178672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3466,7 +2664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="376161664"/>
+        <c:axId val="433178672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,7 +2715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376164408"/>
+        <c:crossAx val="433180240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3598,7 +2796,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3680,7 +2878,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$I$1</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3765,7 +2963,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$I$2:$I$20</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$J$2:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3835,7 +3033,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$J$1</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3920,7 +3118,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$J$2:$J$20</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$K$2:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3990,7 +3188,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$K$1</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4075,7 +3273,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$K$2:$K$20</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$L$2:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4145,7 +3343,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$L$1</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4230,7 +3428,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$L$2:$L$20</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$M$2:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4300,7 +3498,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$M$1</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4385,7 +3583,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Faulkner-Basic-Metrics-Results'!$M$2:$M$20</c:f>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$N$2:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4458,11 +3656,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="379217672"/>
-        <c:axId val="379220808"/>
+        <c:axId val="433179064"/>
+        <c:axId val="433179848"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="379217672"/>
+        <c:axId val="433179064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4505,7 +3703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379220808"/>
+        <c:crossAx val="433179848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4513,7 +3711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379220808"/>
+        <c:axId val="433179848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4564,7 +3762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379217672"/>
+        <c:crossAx val="433179064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4608,6 +3806,2046 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average sentence tree depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$O$2:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.20820652744254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.36902619476104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4730434782608697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3144413069786198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6854599406528101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.63794637183886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1919431279620802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3444922386384803</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1794516754361597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6283141570785302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.46451725950587</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0429942418426101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6103662524525797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9487964989059003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5312117503059897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2939612015018698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7897132453345401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1421009771986901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1295433364398804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="349788088"/>
+        <c:axId val="349788480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="349788088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349788480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="349788480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349788088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average dependency distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$P$2:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.1388615280000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2187536950000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2341488090000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0680102790000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1933339890000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.163553759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1591647520000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1862311060000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2267937899999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.390706512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1341369270000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3358912630000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2073623709999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1873630930000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3819969419999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1841314700000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1879830600000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3380344430000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4347044599999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="347198560"/>
+        <c:axId val="433177888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="347198560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433177888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="433177888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347198560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Word count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>89227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151772</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84917</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>133330</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96474</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140472</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111954</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75682</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159735</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>127332</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>156494</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="554681856"/>
+        <c:axId val="554682640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="554681856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554682640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554682640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554681856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lexical</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Diversity (Faulkner's Contemporaries)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$36:$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>This Side of Paradise</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>The Beautiful and Damned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>The Great Gatsby</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tender Is the Night</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>The Sun Also Rises</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>For Whom the Bell Tolls</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The Old Man and the Sea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Their Eyes Were Watching God</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dubliners</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>A Portrait of the Artist as a Young Man</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ulysses</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Lolita</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pale Fire</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Wise Blood</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>A Good Man Is Hard to Find</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Gravitys Rainbow</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Grapes of Wrath</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Mrs Dalloway</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>To the Lighthouse</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Orlando</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>The Waves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$H$36:$H$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>9.6210492300426304E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6716746892270704E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.100159840574595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2543414670270598E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5986524225364598E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4659717119764802E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3115691289303397E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1268052480253793E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4037349933303696E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9805616824524306E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1144764616366397E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.102350348879911</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.122635058126282</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2809280831808895E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9506357118106402E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5070981230055197E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1594405594405498E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8276602124066905E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.4240281665752694E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2268370607028699E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.8899318503278901E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="556131872"/>
+        <c:axId val="556132264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="556131872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556132264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="556132264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556131872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LD (stemmed, filtered)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Soldiers' Pay</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mosquitoes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Flags in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Sound and the Fury</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>As I Lay Dying</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sanctuary</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Light in August</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pylon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Absalom! Absalom!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Unvanquished</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Wild Palms</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Hamlet</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Go Down, Moses</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intruder in the Dust</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Requiem for a Nun</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Fable</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Town</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Mansion</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Reivers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Faulkner-Basic-Metrics-Results'!$I$2:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.16626686700000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16324796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15983018700000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12922987699999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15151292599999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.156858423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.119635002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17741431899999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15738988200000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14835749200000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.192815546</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.144898637</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14959919099999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.187176166</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25043800900000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15733586999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13335877700000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13503036600000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14553482000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="346775656"/>
+        <c:axId val="346776048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="346775656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346776048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="346776048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346775656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4885,6 +6123,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -7903,24 +9261,1533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>975360</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7937,20 +10804,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7967,20 +10834,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1569720</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>1158240</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7997,21 +10864,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8027,20 +10896,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1097280</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8057,23 +10926,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1531620</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8082,6 +10949,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1051560</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8605,32 +11562,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8656,28 +11614,31 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -8703,28 +11664,31 @@
         <v>6.3736312999428404E-2</v>
       </c>
       <c r="I2">
+        <v>0.16626686700000001</v>
+      </c>
+      <c r="J2">
         <v>0.21539444338597</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.23214946148587301</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>8.0861174308224995E-2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>7.3038430071614993E-2</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.14048438252995099</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3.20820652744254</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3.1388615280000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -8750,28 +11714,31 @@
         <v>6.2331536388140103E-2</v>
       </c>
       <c r="I3">
+        <v>0.16324796</v>
+      </c>
+      <c r="J3">
         <v>0.22097471063897201</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.21365149833518299</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>8.1358014904074794E-2</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>7.5937450451878802E-2</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.123434279372126</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3.36902619476104</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>3.2187536950000002</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -8797,28 +11764,31 @@
         <v>6.1566600274352602E-2</v>
       </c>
       <c r="I4">
+        <v>0.15983018700000001</v>
+      </c>
+      <c r="J4">
         <v>0.23764831707109099</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.192519627066363</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>7.9213522331842701E-2</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6.7867411707264097E-2</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.10612178468739999</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>4.4730434782608697</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3.2341488090000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -8844,28 +11814,31 @@
         <v>4.9999024218887203E-2</v>
       </c>
       <c r="I5">
+        <v>0.12922987699999999</v>
+      </c>
+      <c r="J5">
         <v>0.21580375090259701</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.246082238832185</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>6.5904256357213906E-2</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>7.0968560332546199E-2</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.124899982435939</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>3.3144413069786198</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3.0680102790000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -8891,28 +11864,31 @@
         <v>5.4711940665752697E-2</v>
       </c>
       <c r="I6">
+        <v>0.15151292599999999</v>
+      </c>
+      <c r="J6">
         <v>0.204102077401666</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.24160778937748201</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5.9263946008646998E-2</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>7.3183591690393304E-2</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.13074273260923</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>3.6854599406528101</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>3.1933339890000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -8938,28 +11914,31 @@
         <v>6.2127605970901299E-2</v>
       </c>
       <c r="I7">
+        <v>0.156858423</v>
+      </c>
+      <c r="J7">
         <v>0.229816716004282</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.21802607545506</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>6.4646973609623903E-2</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6.0741953769603799E-2</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.121660263273918</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3.63794637183886</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>3.163553759</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -8985,28 +11964,31 @@
         <v>4.00337348127454E-2</v>
       </c>
       <c r="I8">
+        <v>0.119635002</v>
+      </c>
+      <c r="J8">
         <v>0.18374271934217101</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.22829639195635501</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>6.1493556123659102E-2</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>8.7288827978810296E-2</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.12832406504493499</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>4.1919431279620802</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>3.1591647520000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -9032,28 +12014,31 @@
         <v>6.7442326036011593E-2</v>
       </c>
       <c r="I9">
+        <v>0.17741431899999999</v>
+      </c>
+      <c r="J9">
         <v>0.20812087096812101</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.21130044631816899</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>6.3862359715957898E-2</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>7.8405972891176096E-2</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.103512841951552</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>4.3444922386384803</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>3.1862311060000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -9079,28 +12064,31 @@
         <v>5.4413860346508601E-2</v>
       </c>
       <c r="I10">
+        <v>0.15738988200000001</v>
+      </c>
+      <c r="J10">
         <v>0.193609840246006</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.21204530113252801</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>6.5911647791194697E-2</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>8.8457211430285704E-2</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.10228005700142501</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>7.1794516754361597</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3.2267937899999999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -9126,28 +12114,31 @@
         <v>5.5510464374746299E-2</v>
       </c>
       <c r="I11">
+        <v>0.14835749200000001</v>
+      </c>
+      <c r="J11">
         <v>0.200808742535799</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.22891182097512899</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5.9032407675807197E-2</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>8.23815873383964E-2</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.113948634703461</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>4.6283141570785302</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>3.390706512</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -9173,28 +12164,31 @@
         <v>7.0163982005514394E-2</v>
       </c>
       <c r="I12">
+        <v>0.192815546</v>
+      </c>
+      <c r="J12">
         <v>0.20515372017330999</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.20598295913924899</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>6.95316872939859E-2</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>8.4851877189709102E-2</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.105593216825258</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>4.46451725950587</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>3.1341369270000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -9220,28 +12214,31 @@
         <v>5.2053078193518898E-2</v>
       </c>
       <c r="I13">
+        <v>0.144898637</v>
+      </c>
+      <c r="J13">
         <v>0.20574206959394001</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.21006321544507001</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>6.4995159177629699E-2</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>8.3988268124608398E-2</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.106256051027962</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>5.0429942418426101</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>3.3358912630000002</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -9267,28 +12264,31 @@
         <v>5.5513871768762102E-2</v>
       </c>
       <c r="I14">
+        <v>0.14959919099999999</v>
+      </c>
+      <c r="J14">
         <v>0.20716544294978201</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.20538792718437901</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>7.0403915894027905E-2</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>8.7276917305321805E-2</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.107454847526662</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>4.6103662524525797</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3.2073623709999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -9314,28 +12314,31 @@
         <v>7.0373404508337498E-2</v>
       </c>
       <c r="I15">
+        <v>0.187176166</v>
+      </c>
+      <c r="J15">
         <v>0.20551782458180201</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.19244998810813599</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>6.8774609550487503E-2</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>9.7830395602653206E-2</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>9.8173938320868903E-2</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>5.9487964989059003</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3.1873630930000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -9361,28 +12364,31 @@
         <v>0.100629588935977</v>
       </c>
       <c r="I16">
+        <v>0.25043800900000002</v>
+      </c>
+      <c r="J16">
         <v>0.224367359040094</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.18856275833202499</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>7.92828615776347E-2</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>8.8840056506043E-2</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>8.2770888923769104E-2</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>4.5312117503059897</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>3.3819969419999998</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -9408,28 +12414,31 @@
         <v>5.6506088208595401E-2</v>
       </c>
       <c r="I17">
+        <v>0.15733586999999999</v>
+      </c>
+      <c r="J17">
         <v>0.204344695902588</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.190590665790215</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>7.3215012364228199E-2</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>9.2759883557141501E-2</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>9.4612952702914199E-2</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>5.2939612015018698</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>3.1841314700000001</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -9455,28 +12464,31 @@
         <v>4.9885339113498503E-2</v>
       </c>
       <c r="I18">
+        <v>0.13335877700000001</v>
+      </c>
+      <c r="J18">
         <v>0.20558068670876101</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.21585304558162899</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>6.8341029749002594E-2</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>9.4186850124084995E-2</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.10394873244746</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>4.7897132453345401</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>3.1879830600000001</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -9502,28 +12514,31 @@
         <v>4.99571868570041E-2</v>
       </c>
       <c r="I19">
+        <v>0.13503036600000001</v>
+      </c>
+      <c r="J19">
         <v>0.199962937876212</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.216193592086597</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>7.23030914923255E-2</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>9.5984510588265307E-2</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.10510307104425699</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>5.1421009771986901</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>3.3380344430000002</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -9549,33 +12564,36 @@
         <v>5.6838861775167497E-2</v>
       </c>
       <c r="I20">
+        <v>0.14553482000000001</v>
+      </c>
+      <c r="J20">
         <v>0.20692364959880799</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.2313570187774</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>6.8192158160311003E-2</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>9.6668458929605405E-2</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.10573662006783</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>4.1295433364398804</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>3.4347044599999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -9584,7 +12602,7 @@
         <v>92989.166666666672</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:N24" si="0">AVERAGE(C2:C7)</f>
+        <f t="shared" ref="C24:O24" si="0">AVERAGE(C2:C7)</f>
         <v>6311.5</v>
       </c>
       <c r="D24">
@@ -9608,31 +12626,39 @@
         <v>5.9078836752910376E-2</v>
       </c>
       <c r="I24">
+        <f t="shared" ref="I24" si="1">AVERAGE(I2:I7)</f>
+        <v>0.15449104</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>0.220623335900763</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f t="shared" si="0"/>
         <v>0.22400611509202431</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <f t="shared" si="0"/>
         <v>7.1874647919937876E-2</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f t="shared" si="0"/>
         <v>7.0289566337216863E-2</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <f t="shared" si="0"/>
         <v>0.12455723748476066</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <f t="shared" si="0"/>
         <v>3.6146873033224565</v>
       </c>
+      <c r="P24">
+        <f t="shared" ref="P24" si="2">AVERAGE(P2:P7)</f>
+        <v>3.1694436764999998</v>
+      </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -9641,55 +12667,63 @@
         <v>112559.28571428571</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:N25" si="1">AVERAGE(C8:C14)</f>
+        <f t="shared" ref="C25:O25" si="3">AVERAGE(C8:C14)</f>
         <v>5164.7142857142853</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8390.7142857142862</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6169.1428571428569</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.2086442019922545</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24.108004154456601</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.6447331076829609E-2</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I25" si="4">AVERAGE(I8:I14)</f>
+        <v>0.15573000985714286</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
         <v>0.20062048654416129</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
+      <c r="K25">
+        <f t="shared" si="3"/>
         <v>0.21456972316441128</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
+      <c r="L25">
+        <f t="shared" si="3"/>
         <v>6.503296195318034E-2</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
+      <c r="M25">
+        <f t="shared" si="3"/>
         <v>8.466438032261539E-2</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
+      <c r="N25">
+        <f t="shared" si="3"/>
         <v>0.10962424486875071</v>
       </c>
-      <c r="N25">
-        <f t="shared" si="1"/>
+      <c r="O25">
+        <f t="shared" si="3"/>
         <v>4.9231541361309024</v>
       </c>
+      <c r="P25">
+        <f t="shared" ref="P25" si="5">AVERAGE(P8:P14)</f>
+        <v>3.2343266744285715</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -9698,55 +12732,63 @@
         <v>112215.66666666667</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:N26" si="2">AVERAGE(C15:C20)</f>
+        <f t="shared" ref="C26:O26" si="6">AVERAGE(C15:C20)</f>
         <v>4567.5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8864.6666666666661</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6631.5</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.2737116235497519</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>28.435444529993962</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.4031744899763335E-2</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I26" si="7">AVERAGE(I15:I20)</f>
+        <v>0.168145668</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="6"/>
         <v>0.20778285895137749</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="2"/>
+      <c r="K26">
+        <f t="shared" si="6"/>
         <v>0.20583451144600029</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
+      <c r="L26">
+        <f t="shared" si="6"/>
         <v>7.1684793815664907E-2</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="2"/>
+      <c r="M26">
+        <f t="shared" si="6"/>
         <v>9.4378359217965557E-2</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="2"/>
+      <c r="N26">
+        <f t="shared" si="6"/>
         <v>9.8391033917849868E-2</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="2"/>
+      <c r="O26">
+        <f t="shared" si="6"/>
         <v>4.9725545016144785</v>
       </c>
+      <c r="P26">
+        <f t="shared" ref="P26" si="8">AVERAGE(P15:P20)</f>
+        <v>3.2857022446666666</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -9755,55 +12797,63 @@
         <v>106277.07142857143</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:N28" si="3">AVERAGE(C4,C5,C6,C7,C8,C10,C11,C13,C14,C15,C16,C18,C19,C20)</f>
+        <f t="shared" ref="C28:O28" si="9">AVERAGE(C4,C5,C6,C7,C8,C10,C11,C13,C14,C15,C16,C18,C19,C20)</f>
         <v>5283.4285714285716</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7973.5</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5897.4285714285716</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>4.1768672622189467</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>23.187050650801517</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.8115325844011405E-2</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I28" si="10">AVERAGE(I4,I5,I6,I7,I8,I10,I11,I13,I14,I15,I16,I18,I19,I20)</f>
+        <v>0.15491783964285716</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="9"/>
         <v>0.20862800956092936</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="3"/>
+      <c r="K28">
+        <f t="shared" si="9"/>
         <v>0.21623977073645273</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="3"/>
+      <c r="L28">
+        <f t="shared" si="9"/>
         <v>6.7697081107100529E-2</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="3"/>
+      <c r="M28">
+        <f t="shared" si="9"/>
         <v>8.3976042959134425E-2</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="3"/>
+      <c r="N28">
+        <f t="shared" si="9"/>
         <v>0.10981583350822263</v>
       </c>
-      <c r="N28">
-        <f t="shared" si="3"/>
+      <c r="O28">
+        <f t="shared" si="9"/>
         <v>4.6646661686205801</v>
       </c>
+      <c r="P28">
+        <f t="shared" ref="P28" si="11">AVERAGE(P4,P5,P6,P7,P8,P10,P11,P13,P14,P15,P16,P18,P19,P20)</f>
+        <v>3.2506462515714283</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -9812,55 +12862,63 @@
         <v>106253</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:N29" si="4">AVERAGE(C2,C3,C9,C12,C17)</f>
+        <f t="shared" ref="C29:O29" si="12">AVERAGE(C2,C3,C9,C12,C17)</f>
         <v>5491.8</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>9142.2000000000007</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>6699.8</v>
       </c>
       <c r="F29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>4.3095381756356064</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>20.713405389407718</v>
       </c>
       <c r="H29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>6.4036049127537978E-2</v>
       </c>
       <c r="I29">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I29" si="13">AVERAGE(I2,I3,I9,I12,I17)</f>
+        <v>0.17141611240000004</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="12"/>
         <v>0.21079768821379222</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="4"/>
+      <c r="K29">
+        <f t="shared" si="12"/>
         <v>0.21073500621373781</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="4"/>
+      <c r="L29">
+        <f t="shared" si="12"/>
         <v>7.3765649717294351E-2</v>
       </c>
-      <c r="L29">
-        <f t="shared" si="4"/>
+      <c r="M29">
+        <f t="shared" si="12"/>
         <v>8.0998722832304096E-2</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="4"/>
+      <c r="N29">
+        <f t="shared" si="12"/>
         <v>0.11352753467636023</v>
       </c>
-      <c r="N29">
-        <f t="shared" si="4"/>
+      <c r="O29">
+        <f t="shared" si="12"/>
         <v>4.1360406843699602</v>
       </c>
+      <c r="P29">
+        <f t="shared" ref="P29" si="14">AVERAGE(P2,P3,P9,P12,P17)</f>
+        <v>3.1724229452000001</v>
+      </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -9869,55 +12927,63 @@
         <v>120623.9</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:N31" si="5">AVERAGE(C4,C5,C6,C8,C10,C12,C13,C14,C18,C19)</f>
+        <f t="shared" ref="C31:O31" si="15">AVERAGE(C4,C5,C6,C8,C10,C12,C13,C14,C18,C19)</f>
         <v>5799.1</v>
       </c>
       <c r="D31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>8753.2000000000007</v>
       </c>
       <c r="E31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>6397.8</v>
       </c>
       <c r="F31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>4.1731287634778607</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>22.579551431153678</v>
       </c>
       <c r="H31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>5.3829861825654447E-2</v>
       </c>
       <c r="I31">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I31" si="16">AVERAGE(I4,I5,I6,I8,I10,I12,I13,I14,I18,I19)</f>
+        <v>0.14733003910000003</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="15"/>
         <v>0.20585115622655362</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="5"/>
+      <c r="K31">
+        <f t="shared" si="15"/>
         <v>0.21740320878018368</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="5"/>
+      <c r="L31">
+        <f t="shared" si="15"/>
         <v>6.7736181221952893E-2</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
+      <c r="M31">
+        <f t="shared" si="15"/>
         <v>8.3405402647128923E-2</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="5"/>
+      <c r="N31">
+        <f t="shared" si="15"/>
         <v>0.11207245406505281</v>
       </c>
-      <c r="N31">
-        <f t="shared" si="5"/>
+      <c r="O31">
+        <f t="shared" si="15"/>
         <v>4.6894031505624829</v>
       </c>
+      <c r="P31">
+        <f t="shared" ref="P31" si="17">AVERAGE(P4,P5,P6,P8,P10,P12,P13,P14,P18,P19)</f>
+        <v>3.2084859682999998</v>
+      </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -9926,60 +12992,68 @@
         <v>92988.625</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:N32" si="6">AVERAGE(C2,C3,C7,C9,C15,C16,C17,C20)</f>
+        <f t="shared" ref="C32:O32" si="18">AVERAGE(C2,C3,C7,C9,C15,C16,C17,C20)</f>
         <v>4931.75</v>
       </c>
       <c r="D32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8099.875</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6031.875</v>
       </c>
       <c r="F32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.2793974087599373</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>23.1329062969441</v>
       </c>
       <c r="H32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.749821560281985E-2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I32" si="19">AVERAGE(I2,I3,I7,I9,I15,I16,I17,I20)</f>
+        <v>0.17553405424999999</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="18"/>
         <v>0.21443253376507965</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="6"/>
+      <c r="K32">
+        <f t="shared" si="18"/>
         <v>0.20976098907525764</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="6"/>
+      <c r="L32">
+        <f t="shared" si="18"/>
         <v>7.2524145523817862E-2</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="6"/>
+      <c r="M32">
+        <f t="shared" si="18"/>
         <v>8.3027825222464602E-2</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="6"/>
+      <c r="N32">
+        <f t="shared" si="18"/>
         <v>0.10879827089286614</v>
       </c>
-      <c r="N32">
-        <f t="shared" si="6"/>
+      <c r="O32">
+        <f t="shared" si="18"/>
         <v>4.3078980149793198</v>
       </c>
+      <c r="P32">
+        <f t="shared" ref="P32" si="20">AVERAGE(P2,P3,P7,P9,P15,P16,P17,P20)</f>
+        <v>3.2369495066249998</v>
+      </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -10004,26 +13078,26 @@
       <c r="H36">
         <v>9.6210492300426304E-2</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.23404466871325699</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.19935619383785499</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>9.5974347183037295E-2</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>6.9364521060415796E-2</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>9.5551771709814895E-2</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>4.6563344746801203</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -10048,26 +13122,26 @@
       <c r="H37">
         <v>7.6716746892270704E-2</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.22602551012139099</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.20070177144616699</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>8.9479911184583705E-2</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>6.9139884280643701E-2</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.10163530574869099</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>4.76547192353644</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -10092,26 +13166,26 @@
       <c r="H38">
         <v>0.100159840574595</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.23114607767836701</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.20052726631100401</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>8.37813713075789E-2</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>6.5825254810786105E-2</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.102277209225084</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>4.4361883153715196</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -10136,26 +13210,26 @@
       <c r="H39">
         <v>8.2543414670270598E-2</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.22197022994038501</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.208084940941237</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>8.3644980930869695E-2</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>6.6658644055244895E-2</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.107027807605435</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>4.4687944178834398</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -10180,26 +13254,26 @@
       <c r="H40">
         <v>5.5986524225364598E-2</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.22096133102826601</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>0.23473262703725001</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>6.9329314242652595E-2</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>6.6713950086440002E-2</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>0.10337337647945299</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>3.1106819553409699</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -10224,26 +13298,26 @@
       <c r="H41">
         <v>3.4659717119764802E-2</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>0.200059698750918</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>0.23101120499632599</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>6.5863795003673703E-2</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>7.5610764144011702E-2</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>0.11498323842762601</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>3.60610136333068</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -10268,26 +13342,26 @@
       <c r="H42">
         <v>7.3115691289303397E-2</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>0.190386640589739</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>0.21799307958477501</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>7.1498420340003005E-2</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>7.8268391755679206E-2</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>0.120543102151346</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>4.2034500253678297</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -10312,26 +13386,26 @@
       <c r="H43">
         <v>7.1268052480253793E-2</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0.249215109554182</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>0.21276314484946601</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>9.8235235797613896E-2</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>6.6079513533163603E-2</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>0.107125152847086</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>3.84487375669472</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -10356,26 +13430,26 @@
       <c r="H44">
         <v>8.4037349933303696E-2</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.231732621906032</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>0.20832962798280699</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>7.7012005335704695E-2</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>6.1834889580554303E-2</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>0.114258188824662</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>4.6907783417935702</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -10400,26 +13474,26 @@
       <c r="H45">
         <v>7.9805616824524306E-2</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.236456281478161</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>0.19397034712966299</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>7.5748103938382397E-2</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>5.5967728618440397E-2</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.10373786579540201</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>4.9829376854599401</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -10444,26 +13518,26 @@
       <c r="H46">
         <v>8.1144764616366397E-2</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>0.27853698508060099</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>0.18379823504755999</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>9.1004180150515604E-2</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>5.3609391933480098E-2</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>9.1328925357691701E-2</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>3.7956858638743398</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -10488,26 +13562,26 @@
       <c r="H47">
         <v>0.102350348879911</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.25056922511935298</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>0.19008446566287099</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>0.103323540213</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>6.3973558575100994E-2</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>8.3575100991553394E-2</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>5.67146144994246</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -10532,26 +13606,26 @@
       <c r="H48">
         <v>0.122635058126282</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0.25887090646607402</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>0.17689891852189499</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>9.9042625940278101E-2</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>5.6340703593951803E-2</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>7.2550211483423194E-2</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>6.3111557212503504</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -10576,26 +13650,26 @@
       <c r="H49">
         <v>6.2809280831808895E-2</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>0.19948011937999399</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>0.22699528256474399</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>5.5068836045056302E-2</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>5.9516703571772397E-2</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>0.136420525657071</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>4.3578534031413598</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -10620,26 +13694,26 @@
       <c r="H50">
         <v>5.9506357118106402E-2</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>0.20454727190340299</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>0.22281898872511099</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>6.6609803555721395E-2</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>6.0026121491590402E-2</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>0.12739558067009599</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>4.4227195145078699</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -10664,26 +13738,26 @@
       <c r="H51">
         <v>6.5070981230055197E-2</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>0.259253923050276</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>0.18661426736518699</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>9.2025762308675596E-2</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>6.7600003678578102E-2</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>7.4074301146796695E-2</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>3.5381179679509001</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -10708,26 +13782,26 @@
       <c r="H52">
         <v>4.1594405594405498E-2</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>0.245186013986013</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>0.21678881118881099</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>7.4355244755244701E-2</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>6.4397202797202693E-2</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>0.10300979020978999</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>3.1389021025592201</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -10752,26 +13826,26 @@
       <c r="H53">
         <v>8.8276602124066905E-2</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>0.21608357398728001</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>0.21826129495494601</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>7.3805804099796396E-2</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>7.3190361217630007E-2</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>0.117107734065552</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>4.54005235602094</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -10796,26 +13870,26 @@
       <c r="H54">
         <v>7.4240281665752694E-2</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>0.19299587313497399</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>0.22831952901792099</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>5.8786182216963398E-2</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>7.57265302588669E-2</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>0.131338200917722</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>5.0140959609650304</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -10840,26 +13914,26 @@
       <c r="H55">
         <v>8.2268370607028699E-2</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0.226469394999746</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>0.19525584461686599</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>7.2861199858004905E-2</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>6.4455601196815204E-2</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>9.5085957705766E-2</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>5.83622183708838</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -10884,31 +13958,31 @@
       <c r="H56">
         <v>7.8899318503278901E-2</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>0.24711328275684699</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>0.207277870644207</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>7.77549183489777E-2</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>6.1823325189661799E-2</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>8.3566928121383499E-2</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>5.1443768996960397</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -10933,26 +14007,26 @@
       <c r="H60">
         <v>0.21644033626231499</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>0.27600897713872702</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>0.19837194263760499</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>8.8630225569629795E-2</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>5.0439347255506098E-2</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>7.8017421735326498E-2</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>3.3651452282157601</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -10977,26 +14051,26 @@
       <c r="H61">
         <v>0.17199140881938299</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>0.25827236727297098</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>0.20246325256728601</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>8.4032485401704798E-2</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>5.0674541915564801E-2</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>8.4066044700986595E-2</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>3.4986807387862702</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -11021,26 +14095,26 @@
       <c r="H62">
         <v>0.166390618788922</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>0.25851331654962201</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>0.19650192129322899</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>8.77832251225652E-2</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>5.6115012587783203E-2</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>7.7282363853186695E-2</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>3.8178740690589001</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -11065,26 +14139,26 @@
       <c r="H63">
         <v>0.190107591153616</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>0.26703526598923999</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>0.197728631201434</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>8.4339509862522394E-2</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>5.1823072325164303E-2</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>8.2994620442319103E-2</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>3.6521739130434701</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -11109,26 +14183,26 @@
       <c r="H64">
         <v>0.168353536542309</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>0.25735553724844001</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>0.20148287630928499</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>7.9263269389196103E-2</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>5.0341296928327603E-2</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>8.2264328586559896E-2</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>3.6849869829331698</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -11153,26 +14227,26 @@
       <c r="H65">
         <v>0.17704466530954299</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>0.26460902885881898</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>0.200395162256017</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>8.0110166447131995E-2</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>5.3766016045982502E-2</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>8.0738833672614002E-2</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>3.7924528301886702</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -11197,26 +14271,26 @@
       <c r="H66">
         <v>0.201389821404592</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>0.27219014368201899</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>0.204041896065529</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>8.8794145293406707E-2</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>4.9885860077883697E-2</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>7.8387270041627502E-2</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>3.3988235294117599</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -11241,26 +14315,26 @@
       <c r="H67">
         <v>0.165466978585567</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>0.253284146122008</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>0.20037790174554601</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>8.0079179413352505E-2</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>5.9984404054945699E-2</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>7.3480894967308502E-2</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>4.0056328694499603</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -11285,26 +14359,26 @@
       <c r="H68">
         <v>0.21754678332118099</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>0.26493768010276703</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>0.20435371315487899</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>7.9887511717529405E-2</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>5.5723362149776003E-2</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>8.7108981703294799E-2</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>3.5778830963665</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -11329,26 +14403,26 @@
       <c r="H69">
         <v>0.20468045516352901</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>0.27070063694267499</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>0.199277177413583</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>8.2516281399842503E-2</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>5.5857725613683497E-2</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>7.7721319687969595E-2</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>3.5801630434782599</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -11373,26 +14447,26 @@
       <c r="H70">
         <v>0.178460390498694</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>0.25628031339385599</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>0.21110558388260101</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>7.9219002611615394E-2</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>5.1734858848401899E-2</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>9.3116527795050294E-2</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>3.6245935560153701</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -11417,26 +14491,26 @@
       <c r="H71">
         <v>0.17014627659574399</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>0.25285904255319103</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>0.20545212765957399</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>7.9753989361702096E-2</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>5.2094414893616998E-2</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>9.7938829787234005E-2</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>3.91321713870733</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -11461,26 +14535,26 @@
       <c r="H72">
         <v>0.312338834450747</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>0.32452294997421299</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>0.19004641567818401</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>9.4829809179989594E-2</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>4.6995874161939101E-2</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>6.2661165549252107E-2</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>3.2609122118685598</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -11505,26 +14579,26 @@
       <c r="H73">
         <v>0.25256316880497498</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>0.27009916521934002</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>0.213513362093114</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>8.7623956524174998E-2</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>5.5017087792033098E-2</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>8.7736007619474393E-2</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>3.1236888111888099</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -11549,26 +14623,26 @@
       <c r="H74">
         <v>0.37050278061514003</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>0.33367381681988401</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>0.19390534559073799</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>0.10327999092044</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>4.71002156395414E-2</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>6.7529224832595602E-2</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>3.0901015228426298</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -11593,26 +14667,26 @@
       <c r="H75">
         <v>0.25824200204108799</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>0.27355016195589399</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>0.20264454008963001</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>8.7944269423614496E-2</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>6.2297555131561398E-2</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>8.50157518746949E-2</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>3.8934673366834098</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -11637,26 +14711,26 @@
       <c r="H76">
         <v>0.151093439363817</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>0.214751491053677</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>0.214950298210735</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>6.7117296222664005E-2</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>6.8866799204771303E-2</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>0.113757455268389</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>4.02986512524084</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -11681,26 +14755,26 @@
       <c r="H77">
         <v>0.41117629362214198</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>0.34092960288808599</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>0.18870336943441601</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>9.9879663056558293E-2</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>4.4750300842358599E-2</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>6.5809265944645007E-2</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>3.29761211415259</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -11725,26 +14799,26 @@
       <c r="H78">
         <v>0.39735381988903101</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>0.34107676361197398</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>0.18919578074507601</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>9.85915492957746E-2</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>4.4692396805072802E-2</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>6.9203097372111402E-2</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>3.2389995368225999</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -11769,26 +14843,26 @@
       <c r="H79">
         <v>0.17173344070867699</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>0.235836521038856</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>0.204751358969196</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>7.7431044896315596E-2</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>6.6720354338634894E-2</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>9.3537346486812903E-2</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>3.8513888888888799</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -11813,30 +14887,221 @@
       <c r="H80">
         <v>0.30050326498357099</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>0.30141829222642702</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>0.18770536122779999</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>9.64937819739633E-2</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>5.3362725117497803E-2</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>6.9916399783720801E-2</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>3.3924281033855102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82">
+        <f>AVERAGE(B60:B80)</f>
+        <v>26023.571428571428</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ref="C82:O82" si="21">AVERAGE(C60:C80)</f>
+        <v>2062.8571428571427</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="21"/>
+        <v>6299.0952380952385</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="21"/>
+        <v>5579.5714285714284</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="21"/>
+        <v>4.2960417721114901</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="21"/>
+        <v>12.841441203625482</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="21"/>
+        <v>0.23112028128212303</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="21"/>
+        <v>0.27561453431631844</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="21"/>
+        <v>0.2003318103916884</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="21"/>
+        <v>8.6076207289699697E-2</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="21"/>
+        <v>5.3725867701430806E-2</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="21"/>
+        <v>8.1346816747865411E-2</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="21"/>
+        <v>3.5757186022252019</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>212027</v>
+      </c>
+      <c r="C86">
+        <v>9853</v>
+      </c>
+      <c r="D86">
+        <v>19963</v>
+      </c>
+      <c r="E86">
+        <v>13591</v>
+      </c>
+      <c r="F86">
+        <v>4.4932532177505697</v>
+      </c>
+      <c r="G86">
+        <v>21.519029737135899</v>
+      </c>
+      <c r="H86">
+        <v>6.4100326845165895E-2</v>
+      </c>
+      <c r="J86">
+        <v>0.23520117720856301</v>
+      </c>
+      <c r="K86">
+        <v>0.17773208129153301</v>
+      </c>
+      <c r="L86">
+        <v>9.6681083069609E-2</v>
+      </c>
+      <c r="M86">
+        <v>7.2872794502586893E-2</v>
+      </c>
+      <c r="N86">
+        <v>7.0717408631919498E-2</v>
+      </c>
+      <c r="O86">
+        <v>5.5938877755511003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>129106</v>
+      </c>
+      <c r="C87">
+        <v>6716</v>
+      </c>
+      <c r="D87">
+        <v>11918</v>
+      </c>
+      <c r="E87">
+        <v>8531</v>
+      </c>
+      <c r="F87">
+        <v>4.3479853763574097</v>
+      </c>
+      <c r="G87">
+        <v>19.223645026801599</v>
+      </c>
+      <c r="I87">
+        <v>0.18545557531035101</v>
+      </c>
+      <c r="J87">
+        <v>0.21751893792697399</v>
+      </c>
+      <c r="K87">
+        <v>0.21699998450885299</v>
+      </c>
+      <c r="L87">
+        <v>7.6642448840487598E-2</v>
+      </c>
+      <c r="M87">
+        <v>7.46905643424782E-2</v>
+      </c>
+      <c r="N87">
+        <v>0.103635772156212</v>
+      </c>
+      <c r="O87">
+        <v>4.5369085954916999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>13804</v>
+      </c>
+      <c r="C88">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>2157</v>
+      </c>
+      <c r="E88">
+        <v>1774</v>
+      </c>
+      <c r="F88">
+        <v>4.0625905534627602</v>
+      </c>
+      <c r="G88">
+        <v>1254.9090909090901</v>
+      </c>
+      <c r="I88">
+        <v>0.33758067185172902</v>
+      </c>
+      <c r="J88">
+        <v>0.19103158504781201</v>
+      </c>
+      <c r="K88">
+        <v>0.22377571718342501</v>
+      </c>
+      <c r="L88">
+        <v>6.8023761228629298E-2</v>
+      </c>
+      <c r="M88">
+        <v>8.6713995943204794E-2</v>
+      </c>
+      <c r="N88">
+        <v>0.113517820921472</v>
+      </c>
+      <c r="O88">
+        <v>17.588235294117599</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B24" formulaRange="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>